--- a/feedback.xlsx
+++ b/feedback.xlsx
@@ -8,19 +8,31 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josep\Documents\HERI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9589FC3B-ED8A-4F91-A8DC-7D13C1EAABFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8C05934-0B31-4E6C-A00A-9BA83B7F4E53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="80">
   <si>
     <t>role</t>
   </si>
@@ -251,6 +263,15 @@
   </si>
   <si>
     <t xml:space="preserve">If there could be a follow-up applications based workshop where we could bring our own data and crowdsource what ways are best to present that data, that would be interesting! </t>
+  </si>
+  <si>
+    <t>Equitable Partnerships</t>
+  </si>
+  <si>
+    <t>Considering different types of reciprocity</t>
+  </si>
+  <si>
+    <t>session 06: use in work</t>
   </si>
 </sst>
 </file>
@@ -294,13 +315,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -648,10 +672,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D51"/>
+  <dimension ref="A1:E54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C2" sqref="C2:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="72.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -660,7 +685,7 @@
     <col min="3" max="16384" width="72.7109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -673,69 +698,75 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="E1" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C2" s="1">
+        <f>COUNTA(C3:C100)</f>
+        <v>41</v>
+      </c>
+      <c r="D2" s="1">
+        <f t="shared" ref="D2:E2" si="0">COUNTA(D3:D100)</f>
+        <v>18</v>
+      </c>
+      <c r="E2" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>4</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="90" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>8</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
@@ -743,221 +774,221 @@
         <v>5</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="165" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="165" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C14" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D15" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
+    <row r="17" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
         <v>4</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>8</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C20" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="D21" s="2" t="s">
         <v>37</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>38</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>38</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>38</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>38</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>8</v>
       </c>
@@ -965,193 +996,191 @@
         <v>38</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>38</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>38</v>
       </c>
       <c r="C29" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C30" s="2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>49</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>49</v>
       </c>
       <c r="C33" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C34" s="2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>55</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>55</v>
       </c>
       <c r="C37" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C38" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A39" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B39" s="2" t="s">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>8</v>
+      </c>
+      <c r="B40" t="s">
+        <v>77</v>
+      </c>
+      <c r="D40"/>
+      <c r="E40" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B42" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C39" s="2" t="s">
+      <c r="C42" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D39" s="2" t="s">
+      <c r="D42" s="2" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A40" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B43" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B46" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C43" s="2" t="s">
+      <c r="C46" s="2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A45" s="2" t="s">
+    <row r="48" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B45" s="2" t="s">
+      <c r="B48" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C45" s="2" t="s">
+      <c r="C48" s="2" t="s">
         <v>68</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A46" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" ht="120" x14ac:dyDescent="0.25">
-      <c r="A48" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
@@ -1159,28 +1188,53 @@
         <v>8</v>
       </c>
       <c r="B49" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B51" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C49" s="2" t="s">
+      <c r="C51" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A52" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C52" s="2" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A51" s="2" t="s">
+    <row r="54" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A54" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B51" s="2" t="s">
+      <c r="B54" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C51" s="2" t="s">
+      <c r="C54" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="D51" s="2" t="s">
+      <c r="D54" s="2" t="s">
         <v>76</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:XFD1048576">
+  <conditionalFormatting sqref="A41:XFD1048576 D40:XFD40 A40:B40 A1:XFD39">
     <cfRule type="containsBlanks" dxfId="0" priority="1">
       <formula>LEN(TRIM(A1))=0</formula>
     </cfRule>
